--- a/Results/Popular-Classifiers-All-Databases/RealDataAll.xlsx
+++ b/Results/Popular-Classifiers-All-Databases/RealDataAll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\R\R Codes\Classification using Data-Adaptive Energy Distance (Summer, 2022)\Classification-Summer-2022\Results\Popular-Classifiers-All-Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81F3C14-7C29-4217-B488-564CA72D2E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E48F3F-94A1-4F37-811E-2A5B6577CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5F166798-53FB-4C5C-A651-47634EA8D5F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5F166798-53FB-4C5C-A651-47634EA8D5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="UCR" sheetId="1" r:id="rId1"/>
@@ -14073,7 +14073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C32385-878D-4837-B716-36FA0848DC8D}">
   <dimension ref="A1:AS21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -17342,8 +17342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C762F0F5-3148-4EA2-B15E-4D69075D73AD}">
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
